--- a/Data/Lyy_RGF_OD_biomass_Data.xlsx
+++ b/Data/Lyy_RGF_OD_biomass_Data.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -471,90 +471,270 @@
       <c r="A2">
         <v>101</v>
       </c>
+      <c r="B2">
+        <v>1574.4</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>1454.4</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>102</v>
       </c>
+      <c r="B3">
+        <v>1210.2</v>
+      </c>
+      <c r="C3">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">B3-C3</f>
+        <v>1089.2</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>103</v>
       </c>
+      <c r="B4">
+        <v>1359.7</v>
+      </c>
+      <c r="C4">
+        <v>124</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1235.7</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>104</v>
       </c>
+      <c r="B5">
+        <v>1302.8</v>
+      </c>
+      <c r="C5">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1183.8</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>105</v>
       </c>
+      <c r="B6">
+        <v>1220.8</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1100.8</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>106</v>
       </c>
+      <c r="B7">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="C7">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1043.5999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>201</v>
       </c>
+      <c r="B8">
+        <v>1647.4</v>
+      </c>
+      <c r="C8">
+        <v>124</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1523.4</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>202</v>
       </c>
+      <c r="B9">
+        <v>1353.8</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1232.8</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>203</v>
       </c>
+      <c r="B10">
+        <v>1430.6</v>
+      </c>
+      <c r="C10">
+        <v>179</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1251.5999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>204</v>
       </c>
+      <c r="B11">
+        <v>1335.5</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1210.5</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>205</v>
       </c>
+      <c r="B12">
+        <v>1360.5</v>
+      </c>
+      <c r="C12">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1238.5</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>206</v>
       </c>
+      <c r="B13">
+        <v>1376.1</v>
+      </c>
+      <c r="C13">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1251.0999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>301</v>
       </c>
+      <c r="B14">
+        <v>1531.4</v>
+      </c>
+      <c r="C14">
+        <v>123</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1408.4</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
         <v>302</v>
       </c>
+      <c r="B15">
+        <v>1469.9</v>
+      </c>
+      <c r="C15">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1343.9</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1749.5</v>
+      </c>
+      <c r="C16">
+        <v>127</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1622.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1315.4</v>
+      </c>
+      <c r="C17">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1196.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1366.4</v>
+      </c>
+      <c r="C18">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1248.4000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>306</v>
+      </c>
+      <c r="B19">
+        <v>1450.9</v>
+      </c>
+      <c r="C19">
+        <v>119</v>
+      </c>
+      <c r="D19">
+        <f>B19-C19</f>
+        <v>1331.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lyy_RGF_OD_biomass_Data.xlsx
+++ b/Data/Lyy_RGF_OD_biomass_Data.xlsx
@@ -43,19 +43,19 @@
     <t>Plot_RGF</t>
   </si>
   <si>
-    <t>OD_Total Biomass_Bag _Tie_g</t>
-  </si>
-  <si>
     <t>Bag_Tie_g</t>
-  </si>
-  <si>
-    <t>OD_Total Biomass_g</t>
   </si>
   <si>
     <t>OD grain_g</t>
   </si>
   <si>
     <t>OD Straw_g</t>
+  </si>
+  <si>
+    <t>OD_Total_Biomass_Bag _Tie_g</t>
+  </si>
+  <si>
+    <t>OD_Total_Biomass_g</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -449,19 +449,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>121</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D18" si="0">B3-C3</f>
         <v>1089.2</v>
       </c>
     </row>
